--- a/output/3_Regression/analysis_01/h19/coef_rf_h19_random.xlsx
+++ b/output/3_Regression/analysis_01/h19/coef_rf_h19_random.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_2</t>
+          <t>Core CPI - Services - Dining Out_lag_1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.09618745647905054</v>
+        <v>0.06700424605290854</v>
       </c>
     </row>
     <row r="3">
@@ -468,2434 +468,2434 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08111351890060703</v>
+        <v>0.06174080536989775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_1</t>
+          <t>Core CPI - Services - Dining Out_lag_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07967403390043351</v>
+        <v>0.02450314508471686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03555532256000499</v>
+        <v>0.02413566867638917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02888151487424286</v>
+        <v>0.02330747606500259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.02526680939955063</v>
+        <v>0.02212945927720768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02279709384963183</v>
+        <v>0.02120101364655189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02207201219168783</v>
+        <v>0.01972122995646339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02030250435189579</v>
+        <v>0.01957735716655492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01924460268647013</v>
+        <v>0.01659012567236805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
+          <t>Terms of Trade - Imports_lag_2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01761474129393225</v>
+        <v>0.01639120859594642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01566350722263303</v>
+        <v>0.01453429317191534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Monetary Policy Rate_lag_3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01514384546272089</v>
+        <v>0.0141204725023201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_3</t>
+          <t>Terms of Trade - Exports_lag_3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01499836807836495</v>
+        <v>0.0137175298802961</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
+          <t>Terms of Trade - Imports_lag_1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01456914084707365</v>
+        <v>0.01326642867905188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
+          <t>Terms of Trade - Imports_lag_3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01452889417192559</v>
+        <v>0.01318954759510998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_1</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01384498941003603</v>
+        <v>0.01318900342137493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01380078679402602</v>
+        <v>0.01182417822814445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
+          <t>Electricity Production - Lima (GWh)_lag_2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01373528088664401</v>
+        <v>0.0116271494835946</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01366654565082733</v>
+        <v>0.01151618520744822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01186300737265214</v>
+        <v>0.01149639812275975</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01063818012242756</v>
+        <v>0.01146761467621672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01063383350593322</v>
+        <v>0.01141514789187988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_3</t>
+          <t>Business Expectations - Inventory (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01058698038669676</v>
+        <v>0.01080346443874121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.009922798816127527</v>
+        <v>0.01076880443611206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_1</t>
+          <t>GDP Growth - Commerce (annual %)_lag_3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.008477817620192675</v>
+        <v>0.01059883932076556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.008247505486517506</v>
+        <v>0.01031862921122621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_2</t>
+          <t>Private Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.008203794800090331</v>
+        <v>0.01006207363302939</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.008177469150154904</v>
+        <v>0.009826500800644155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_2</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.007511469554448562</v>
+        <v>0.009654528153279926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006985583883159995</v>
+        <v>0.009592726784156021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_3</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.006934205669680559</v>
+        <v>0.009031102977805539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_2</t>
+          <t>Employment Ratio (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006800150634486765</v>
+        <v>0.008873034502981093</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.006723886459960272</v>
+        <v>0.008611437642750977</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_3</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.006541691310019482</v>
+        <v>0.008326179267995415</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.006475485998419139</v>
+        <v>0.008310879350796076</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.006412426553617931</v>
+        <v>0.008172583779746998</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_3</t>
+          <t>General Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006336407045783224</v>
+        <v>0.007824004099789519</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.006329338306213577</v>
+        <v>0.007773254377944124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.006259591723172606</v>
+        <v>0.007566305738960405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.006139098807536587</v>
+        <v>0.007556375733157475</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_1</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.006071582121009444</v>
+        <v>0.007195633692786453</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_3</t>
+          <t>GDP - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00578964672160371</v>
+        <v>0.00694696894282969</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_2</t>
+          <t>Underemployed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.005627173418374052</v>
+        <v>0.006933957302112454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.005480692923676306</v>
+        <v>0.00671865365684817</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.005448589124299879</v>
+        <v>0.006682409733782435</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.005376818443083872</v>
+        <v>0.006579551258262033</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.005220269643120912</v>
+        <v>0.006576344686919711</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_1</t>
+          <t>Terms of Trade - Exports_lag_1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.004992048607476861</v>
+        <v>0.006447627846516423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Business Expectations - Demand (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.004932012504930069</v>
+        <v>0.006412372456822175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.004913209039573778</v>
+        <v>0.006367049337016352</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004906389770425608</v>
+        <v>0.006193121637278105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.004784948963773314</v>
+        <v>0.006177272171502597</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.004783582881518139</v>
+        <v>0.006116605086043594</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.004769101341631941</v>
+        <v>0.006062948140309111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.00473667719902869</v>
+        <v>0.006019855172863086</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.004713511539825949</v>
+        <v>0.005909777853251002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.004655679162861625</v>
+        <v>0.005612045254016674</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_1</t>
+          <t>GDP - Fishing_lag_1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.00459906286291104</v>
+        <v>0.005489213287785222</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.004357998992133448</v>
+        <v>0.005489156643868811</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.004333086769000849</v>
+        <v>0.005432716641987811</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.004296483306300542</v>
+        <v>0.005427351369391269</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.004222971517645604</v>
+        <v>0.00529917435674286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.004194291013548027</v>
+        <v>0.005206749296991439</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Terms of Trade - Exports_lag_2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.004171211281878847</v>
+        <v>0.005157845677471209</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.004146469867367258</v>
+        <v>0.005074745872446352</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Inventory (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.00409456047688356</v>
+        <v>0.004850354356375227</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
+          <t>Business Expectations - Orders (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.003710664892602172</v>
+        <v>0.00484260665353799</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Monetary Policy Rate_lag_2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.003672586760775569</v>
+        <v>0.00476838004291041</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_2</t>
+          <t>GDP Growth - Commerce (annual %)_lag_2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.00363873222054539</v>
+        <v>0.004701925373300401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.003523955427452974</v>
+        <v>0.004544302941415257</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.003494363021369787</v>
+        <v>0.004427323489944028</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
+          <t>Wheat Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.003478985676037475</v>
+        <v>0.004342424281479458</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.003423993815701046</v>
+        <v>0.004303842175233767</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_3</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.003314935869644158</v>
+        <v>0.004257692557558416</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.003214755612687762</v>
+        <v>0.004038884126817244</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.003112472896507974</v>
+        <v>0.003929660628551045</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_1</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.00305765050544539</v>
+        <v>0.003688049160604138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.002947145003382568</v>
+        <v>0.003645821105895144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_2</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.002880874959791817</v>
+        <v>0.003614542621240666</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.002836146067169968</v>
+        <v>0.003585824221155856</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_3</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.002774052298183959</v>
+        <v>0.00356350799232862</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
+          <t>Business Expectations - Economy (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.002642499785466933</v>
+        <v>0.003555041472022448</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.002560245488960379</v>
+        <v>0.003412990137761757</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
+          <t>Chicken Placements (thousands)_lag_2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.002417597532489747</v>
+        <v>0.003403599434814423</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.002390142634907759</v>
+        <v>0.003182174693818013</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.002374724955763574</v>
+        <v>0.003129174586304971</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_1</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.002340593865795758</v>
+        <v>0.003124890622710216</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.002151871523163677</v>
+        <v>0.00302906275627535</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.002125650473800024</v>
+        <v>0.003028150629076802</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
+          <t>Gold (US$ per oz troy)_lag_2</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.002062921304382547</v>
+        <v>0.002986739891490996</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.002025320457070169</v>
+        <v>0.002935391262476183</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.001952593348413186</v>
+        <v>0.002848982173020308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_2</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.001946169027164426</v>
+        <v>0.002820633353716512</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_1</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.001867797166129228</v>
+        <v>0.002811184083613897</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_2</t>
+          <t>Public Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.001837359271915641</v>
+        <v>0.002717792693731038</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.001827322048271466</v>
+        <v>0.002706109842480102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.001746270850449832</v>
+        <v>0.002683105013617368</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
+          <t>Monetary Policy Rate_lag_1</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.001671364264895657</v>
+        <v>0.002586943126601477</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_2</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.001639956498958719</v>
+        <v>0.002586465712514883</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.001630786330172517</v>
+        <v>0.002525104502186983</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.001601676399372146</v>
+        <v>0.002435694902402802</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.001459984634776575</v>
+        <v>0.002383303592546859</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_1</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.001381847938120652</v>
+        <v>0.002364541305878284</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_2</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.001372607411593638</v>
+        <v>0.002334910149327461</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.001308867339804296</v>
+        <v>0.002249026287519872</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.00128457504927144</v>
+        <v>0.002195518923241137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_3</t>
+          <t>Business Expectations - Orders (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.001276138167129713</v>
+        <v>0.002188091406519871</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.001249890590490751</v>
+        <v>0.002105602544885832</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
+          <t>GDP - Agriculture_lag_3</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.001249043006297308</v>
+        <v>0.002034267063583025</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_3</t>
+          <t>Monthly Income (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.001241962282905765</v>
+        <v>0.002021606112228615</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_3</t>
+          <t>Corn Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.001232431014805842</v>
+        <v>0.001976620047157871</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.001155371219479297</v>
+        <v>0.001923321366310242</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_1</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.001127122039509639</v>
+        <v>0.001908713117428748</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.001101577441464212</v>
+        <v>0.001905701531490684</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.001090979773734558</v>
+        <v>0.001840625122493828</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_2</t>
+          <t>Business Expectations - Economy (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.001083723568186501</v>
+        <v>0.001809289747462523</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.001076607092797982</v>
+        <v>0.001804821870505637</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
+          <t>Copper Price (¢US$ per lb)_lag_2</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001002557918405225</v>
+        <v>0.001779267204935827</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_3</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009925635686147192</v>
+        <v>0.001778863735740584</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.0009609715087443671</v>
+        <v>0.001714354998844302</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_1</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.0009255130340236365</v>
+        <v>0.001689098293466877</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Private Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.0008623056579070396</v>
+        <v>0.001677028646793058</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_2</t>
+          <t>GDP - Mining_lag_1</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.000858728742795513</v>
+        <v>0.001634301086497328</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_2</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0008541885714024144</v>
+        <v>0.001577444357059489</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0008433594354926441</v>
+        <v>0.001560195439590996</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0008401183961858675</v>
+        <v>0.001555675920964141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
+          <t>Business Expectations - Current Situation_lag_2</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0008069648617887958</v>
+        <v>0.001555484949971933</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_2</t>
+          <t>GDP - Construction_lag_1</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.0008052637203567309</v>
+        <v>0.001545030299171064</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.000765073017485863</v>
+        <v>0.001518505511371121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0006736423839397268</v>
+        <v>0.001471980669081797</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
+          <t>GDP - Fishing_lag_3</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0006628060492258774</v>
+        <v>0.001410145710859374</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_3</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0006355017714578521</v>
+        <v>0.00138297059547416</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0006284272607257116</v>
+        <v>0.001369234539115605</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
+          <t>GDP - Construction_lag_2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0005613320469364999</v>
+        <v>0.001274299056451846</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_2</t>
+          <t>Business Expectations - Sector (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.0005103540907836902</v>
+        <v>0.00124294922375683</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.0005019105110616817</v>
+        <v>0.001204198177569325</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
+          <t>Business Expectations - Sector (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.0004293719122652224</v>
+        <v>0.001186088472230552</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.0004145211369889664</v>
+        <v>0.00115301032695777</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_2</t>
+          <t>Business Expectations - Demand (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.0003688879545065816</v>
+        <v>0.001078152616953871</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
+          <t>Corn Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.0003250755208020141</v>
+        <v>0.001052175372110105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.0003206846962503218</v>
+        <v>0.001039858052508598</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.0002912597128585051</v>
+        <v>0.00103602890407955</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
+          <t>Labor Force (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.0002828283333776931</v>
+        <v>0.00102030175236188</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_2</t>
+          <t>GDP - Construction_lag_3</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.0002798937046192811</v>
+        <v>0.000985978398920993</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.0002551121526885623</v>
+        <v>0.000976083312003011</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_3</t>
+          <t>Private Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.0002416096896109022</v>
+        <v>0.0009585858206872294</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.000230396043612003</v>
+        <v>0.0009098257247563999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
+          <t>Chicken Placements (thousands)_lag_1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.0002232094536930407</v>
+        <v>0.0008925272184394181</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_1</t>
+          <t>Public Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.0002129430686365252</v>
+        <v>0.0008703602984601004</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_3</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.0001798653973768423</v>
+        <v>0.0008452477857703233</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.0001711938180518886</v>
+        <v>0.0007785967537490307</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.0001678079826779769</v>
+        <v>0.0007537518541057613</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_3</t>
+          <t>GDP - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.0001593309864842919</v>
+        <v>0.0007520424735778519</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.0001492629218325526</v>
+        <v>0.0007314645941572246</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.000145155221642066</v>
+        <v>0.000707094641409975</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_1</t>
+          <t>Public Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0001354043228183908</v>
+        <v>0.0006902316206187538</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.0001074776332979177</v>
+        <v>0.0006676444738662648</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_1</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7.677190919158789e-05</v>
+        <v>0.0006534501845561386</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
+          <t>GDP - Fishing_lag_2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7.368534123986733e-05</v>
+        <v>0.0006508958614216737</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.0006503505302379246</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.0006284958651712175</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.0006158807148839445</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_2</t>
+          <t>GDP - Agriculture_lag_1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.0005171494771382863</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_1</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>0.0005028576783613183</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.0004914124672259628</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_3</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.0004714398747989462</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.0004663718448308837</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
+          <t>Business Expectations - Sector (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.0004454574247987424</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.0004283744406870088</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Business Expectations - Sales (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>0.0003946365306636552</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.0003909116033801261</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_3</t>
+          <t>Business Expectations - Orders (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.0003835724423146797</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.0003702382775454147</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_2</t>
+          <t>Chicken Placements (thousands)_lag_3</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.0003630333986949988</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_1</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.0003176300317622017</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.0002862179153493833</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
+          <t>Underemployed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.0002458649660630497</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.000214385562673505</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_3</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.0001821198866211521</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_1</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.0001460674820108081</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.0001390778791706901</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.0001332632403547876</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.0001074697720648037</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_3</t>
+          <t>GDP - Mining_lag_3</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>8.948143307574324e-05</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_1</t>
+          <t>Business Expectations - Demand (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>8.385819829472113e-05</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
+          <t>GDP - Agriculture_lag_2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>4.64536070720007e-05</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_2</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>3.161366692481709e-05</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_2</t>
+          <t>GDP - Mining_lag_2</t>
         </is>
       </c>
       <c r="C190" t="n">
